--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T13:07:17+00:00</t>
+    <t>2024-07-15T09:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T09:40:45+00:00</t>
+    <t>2024-07-16T10:33:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -587,7 +587,7 @@
     <t>Behandlungsart</t>
   </si>
   <si>
-    <t>http://tbd.at/MOPED-encounter-behandlungsart</t>
+    <t>http://example.org/ValueSet/moped-behandlungsart-valueset</t>
   </si>
   <si>
     <t>Encounter.class:Aufnahmeart</t>
@@ -596,7 +596,7 @@
     <t>Aufnahmeart</t>
   </si>
   <si>
-    <t>http://tbd.at/moped-ext-diagnose-art</t>
+    <t>http://example.org/ValueSet/moped-aufnahmeart-valueset</t>
   </si>
   <si>
     <t>Encounter.priority</t>
@@ -1430,7 +1430,7 @@
     <t>Encounter.reason:Ursache.value</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/ursache-valueset</t>
+    <t>http://example.org/ValueSet/moped-ursache-valueset</t>
   </si>
   <si>
     <t>Encounter.diagnosis</t>
@@ -1511,7 +1511,7 @@
     <t>Code für den Typ der LKF Diagnose, der angibt ob es sich um eine Haupt- oder Nebendiagnose handelt</t>
   </si>
   <si>
-    <t>http://tbd.at/moped-ext-lkf-diagnose-typ</t>
+    <t>https://termgit.elga.gv.at/ValueSet/lkf-diagnose-typ</t>
   </si>
   <si>
     <t>DG1-6 (Diagnosis Type)</t>
@@ -1757,7 +1757,7 @@
     <t>Category or kind of location after discharge.</t>
   </si>
   <si>
-    <t>http://tbd.at/MOPED-encounter-entlassungsart</t>
+    <t>http://example.org/ValueSet/moped-entlassungsart-valueset</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -2195,7 +2195,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.57421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-16T10:33:51+00:00</t>
+    <t>2024-07-19T05:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1452,22 +1452,6 @@
   </si>
   <si>
     <t>Encounter.diagnosis.extension</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.extension:Erworben</t>
-  </si>
-  <si>
-    <t>Erworben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-erworben}
-</t>
-  </si>
-  <si>
-    <t>Diagnose - im stationären Aufenthalt erworben</t>
-  </si>
-  <si>
-    <t>Gibt an ob die Diagnose während des stationären Aufenthalts erworben wurde</t>
   </si>
   <si>
     <t>Encounter.diagnosis.modifierExtension</t>
@@ -2161,7 +2145,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9476,7 +9460,7 @@
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9498,12 +9482,14 @@
         <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -9540,14 +9526,16 @@
         <v>19</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC65" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>278</v>
@@ -9571,7 +9559,7 @@
         <v>19</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>19</v>
@@ -9582,41 +9570,43 @@
         <v>455</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>457</v>
+        <v>134</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>458</v>
+        <v>281</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>19</v>
       </c>
@@ -9664,7 +9654,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9685,7 +9675,7 @@
         <v>19</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>19</v>
@@ -9693,14 +9683,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>280</v>
+        <v>457</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9713,26 +9703,22 @@
         <v>19</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>458</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>281</v>
+        <v>459</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>19</v>
       </c>
@@ -9756,13 +9742,11 @@
         <v>19</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>19</v>
+        <v>461</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>19</v>
@@ -9780,7 +9764,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>283</v>
+        <v>456</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9792,31 +9776,31 @@
         <v>19</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>19</v>
+        <v>363</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>132</v>
+        <v>462</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>19</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>462</v>
+        <v>19</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9832,16 +9816,16 @@
         <v>19</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>463</v>
+        <v>171</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9868,11 +9852,13 @@
         <v>19</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y68" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="Z68" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>19</v>
@@ -9890,7 +9876,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9905,24 +9891,24 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>362</v>
+        <v>19</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>467</v>
+        <v>211</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9945,15 +9931,17 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>171</v>
+        <v>471</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>19</v>
@@ -9978,13 +9966,13 @@
         <v>19</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>472</v>
+        <v>19</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>473</v>
+        <v>19</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>19</v>
@@ -10002,7 +9990,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10023,18 +10011,18 @@
         <v>19</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>211</v>
+        <v>475</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>474</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10057,7 +10045,7 @@
         <v>19</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>476</v>
+        <v>171</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>477</v>
@@ -10068,7 +10056,9 @@
       <c r="N70" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="O70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>19</v>
       </c>
@@ -10092,13 +10082,13 @@
         <v>19</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>19</v>
+        <v>481</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>19</v>
+        <v>482</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>19</v>
@@ -10116,7 +10106,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10137,18 +10127,18 @@
         <v>19</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>19</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10174,17 +10164,13 @@
         <v>171</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>19</v>
       </c>
@@ -10208,13 +10194,13 @@
         <v>19</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>19</v>
@@ -10232,7 +10218,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10253,18 +10239,18 @@
         <v>19</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10290,12 +10276,14 @@
         <v>171</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>19</v>
@@ -10323,10 +10311,10 @@
         <v>174</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>19</v>
@@ -10344,7 +10332,7 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10365,18 +10353,18 @@
         <v>19</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10387,7 +10375,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>19</v>
@@ -10399,16 +10387,16 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10434,13 +10422,13 @@
         <v>19</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>501</v>
+        <v>19</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>502</v>
+        <v>19</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>19</v>
@@ -10458,13 +10446,13 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>19</v>
@@ -10479,10 +10467,10 @@
         <v>19</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>504</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -10513,17 +10501,15 @@
         <v>19</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>506</v>
+        <v>271</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>19</v>
@@ -10572,7 +10558,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>505</v>
+        <v>273</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10581,10 +10567,10 @@
         <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>19</v>
@@ -10593,7 +10579,7 @@
         <v>19</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>509</v>
+        <v>211</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>19</v>
@@ -10601,10 +10587,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10615,7 +10601,7 @@
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>19</v>
@@ -10627,13 +10613,13 @@
         <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10672,31 +10658,29 @@
         <v>19</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>19</v>
@@ -10705,7 +10689,7 @@
         <v>19</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>19</v>
@@ -10713,12 +10697,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>19</v>
       </c>
@@ -10727,7 +10713,7 @@
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>19</v>
@@ -10739,13 +10725,13 @@
         <v>19</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>134</v>
+        <v>509</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>135</v>
+        <v>508</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>136</v>
+        <v>510</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10784,14 +10770,16 @@
         <v>19</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC76" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD76" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>278</v>
@@ -10823,13 +10811,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C77" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>19</v>
@@ -10851,13 +10839,13 @@
         <v>19</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10937,44 +10925,46 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>518</v>
+        <v>134</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>517</v>
+        <v>281</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>19</v>
       </c>
@@ -11022,7 +11012,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11043,7 +11033,7 @@
         <v>19</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>19</v>
@@ -11051,46 +11041,42 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>281</v>
+        <v>517</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>19</v>
       </c>
@@ -11138,19 +11124,19 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>283</v>
+        <v>516</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>19</v>
@@ -11159,18 +11145,18 @@
         <v>19</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>19</v>
+        <v>519</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11193,7 +11179,7 @@
         <v>19</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>153</v>
+        <v>521</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>522</v>
@@ -11250,7 +11236,7 @@
         <v>19</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11271,10 +11257,10 @@
         <v>19</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>158</v>
+        <v>524</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>524</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -11305,13 +11291,13 @@
         <v>19</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11338,13 +11324,13 @@
         <v>19</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>19</v>
+        <v>528</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>19</v>
+        <v>529</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>19</v>
@@ -11383,18 +11369,18 @@
         <v>19</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>19</v>
+        <v>531</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11420,10 +11406,10 @@
         <v>171</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11450,13 +11436,13 @@
         <v>19</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>19</v>
@@ -11474,7 +11460,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11495,18 +11481,18 @@
         <v>19</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>535</v>
+        <v>211</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11529,13 +11515,13 @@
         <v>19</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>171</v>
+        <v>521</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11562,13 +11548,13 @@
         <v>19</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>540</v>
+        <v>19</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>541</v>
+        <v>19</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>19</v>
@@ -11586,7 +11572,7 @@
         <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11607,7 +11593,7 @@
         <v>19</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>211</v>
+        <v>541</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>542</v>
@@ -11641,7 +11627,7 @@
         <v>19</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>526</v>
+        <v>171</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>544</v>
@@ -11674,13 +11660,11 @@
         <v>19</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>19</v>
+        <v>546</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>19</v>
@@ -11719,18 +11703,18 @@
         <v>19</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11741,7 +11725,7 @@
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>19</v>
@@ -11753,15 +11737,17 @@
         <v>19</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>19</v>
@@ -11786,11 +11772,13 @@
         <v>19</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y85" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z85" t="s" s="2">
-        <v>551</v>
+        <v>19</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>19</v>
@@ -11808,13 +11796,13 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>19</v>
@@ -11829,10 +11817,10 @@
         <v>19</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>553</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
@@ -11851,7 +11839,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>19</v>
@@ -11863,17 +11851,15 @@
         <v>19</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>555</v>
+        <v>271</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>19</v>
@@ -11922,19 +11908,19 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>554</v>
+        <v>273</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>19</v>
@@ -11943,7 +11929,7 @@
         <v>19</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>558</v>
+        <v>211</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>19</v>
@@ -11951,21 +11937,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>19</v>
@@ -11977,15 +11963,17 @@
         <v>19</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>19</v>
@@ -12034,19 +12022,19 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>19</v>
@@ -12063,14 +12051,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12083,24 +12071,26 @@
         <v>19</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="O88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>19</v>
       </c>
@@ -12148,7 +12138,7 @@
         <v>19</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12169,7 +12159,7 @@
         <v>19</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>19</v>
@@ -12177,46 +12167,42 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>134</v>
+        <v>558</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>281</v>
+        <v>559</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>19</v>
       </c>
@@ -12264,39 +12250,39 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>283</v>
+        <v>557</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>19</v>
+        <v>561</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>19</v>
+        <v>562</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>19</v>
+        <v>563</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12304,7 +12290,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>87</v>
@@ -12319,15 +12305,17 @@
         <v>19</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>563</v>
+        <v>107</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>19</v>
@@ -12352,13 +12340,13 @@
         <v>19</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>19</v>
+        <v>568</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>19</v>
+        <v>569</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>19</v>
@@ -12376,10 +12364,10 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>87</v>
@@ -12391,24 +12379,24 @@
         <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>566</v>
+        <v>19</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>567</v>
+        <v>19</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>306</v>
+        <v>570</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>568</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12431,16 +12419,16 @@
         <v>19</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12466,13 +12454,13 @@
         <v>19</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>19</v>
@@ -12490,7 +12478,7 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -12511,7 +12499,7 @@
         <v>19</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>575</v>
+        <v>19</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>19</v>
@@ -12519,10 +12507,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12545,17 +12533,15 @@
         <v>19</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N92" t="s" s="2">
         <v>579</v>
       </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>19</v>
@@ -12580,13 +12566,13 @@
         <v>19</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>580</v>
+        <v>19</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>581</v>
+        <v>19</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>19</v>
@@ -12604,7 +12590,7 @@
         <v>19</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12625,121 +12611,9 @@
         <v>19</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>19</v>
+        <v>298</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AN93" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T05:43:00+00:00</t>
+    <t>2024-07-31T11:45:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>MOPED Profil der Encounter Ressource für die Krankenanstaltenaufnahme</t>
+    <t>MOPED Profil der Encounter Ressource für die Krankenanstaltenaufnahme und Entlassung</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T11:45:17+00:00</t>
+    <t>2024-08-01T08:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T08:50:18+00:00</t>
+    <t>2024-08-01T13:41:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T13:41:58+00:00</t>
+    <t>2024-08-06T11:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T11:00:40+00:00</t>
+    <t>2024-08-06T12:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:10:21+00:00</t>
+    <t>2024-08-07T21:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T21:51:51+00:00</t>
+    <t>2024-09-03T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:35:21+00:00</t>
+    <t>2024-09-03T06:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:46:02+00:00</t>
+    <t>2024-09-05T05:58:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T05:58:31+00:00</t>
+    <t>2024-09-10T13:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T13:26:38+00:00</t>
+    <t>2024-09-11T18:39:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T18:39:22+00:00</t>
+    <t>2024-09-12T09:13:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T16:58:21+00:00</t>
+    <t>2024-09-17T12:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="668">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T12:39:21+00:00</t>
+    <t>2024-09-17T13:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,17 +455,17 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Encounter.extension:Fallnummer</t>
-  </si>
-  <si>
-    <t>Fallnummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-fallnummer}
+    <t>Encounter.extension:AnzahlVerlegungen</t>
+  </si>
+  <si>
+    <t>AnzahlVerlegungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-AnzahlVerlegungen}
 </t>
   </si>
   <si>
-    <t>MOPED Extension für die Anzahl der Wiederaufnahmen</t>
+    <t>MOPED Extension für die Anzahl der Verlegungen</t>
   </si>
   <si>
     <t>Encounter.extension:Unfalldatum</t>
@@ -713,9 +713,6 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
-  </si>
-  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -1028,7 +1025,7 @@
     <t>http://terminology.hl7.org/ValueSet/encounter-class</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.code}
+    <t xml:space="preserve">value:coding.system}
 </t>
   </si>
   <si>
@@ -1774,7 +1771,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/MOPEDAccount)
 </t>
   </si>
   <si>
@@ -2426,7 +2423,7 @@
   <cols>
     <col min="1" max="1" width="56.9453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.58984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.93359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -5130,49 +5127,49 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -5193,18 +5190,18 @@
         <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5227,16 +5224,16 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5286,7 +5283,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5307,18 +5304,18 @@
         <v>19</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5344,63 +5341,63 @@
         <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5409,7 +5406,7 @@
         <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>99</v>
@@ -5421,18 +5418,18 @@
         <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5455,17 +5452,17 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -5514,7 +5511,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5523,7 +5520,7 @@
         <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>99</v>
@@ -5535,18 +5532,18 @@
         <v>19</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5569,19 +5566,19 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -5630,7 +5627,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5651,18 +5648,18 @@
         <v>19</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5685,19 +5682,19 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -5746,7 +5743,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5767,18 +5764,18 @@
         <v>19</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5804,16 +5801,16 @@
         <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -5826,43 +5823,43 @@
         <v>19</v>
       </c>
       <c r="T30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5883,18 +5880,18 @@
         <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5917,16 +5914,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5940,43 +5937,43 @@
         <v>19</v>
       </c>
       <c r="T31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5985,7 +5982,7 @@
         <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>99</v>
@@ -5997,18 +5994,18 @@
         <v>19</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6031,13 +6028,13 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6088,7 +6085,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -6109,18 +6106,18 @@
         <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6143,16 +6140,16 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6202,7 +6199,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6223,18 +6220,18 @@
         <v>19</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6260,13 +6257,13 @@
         <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6295,11 +6292,11 @@
         <v>111</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>19</v>
       </c>
@@ -6316,7 +6313,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -6331,24 +6328,24 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6374,10 +6371,10 @@
         <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6404,19 +6401,19 @@
         <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB35" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
@@ -6426,7 +6423,7 @@
         <v>138</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6444,24 +6441,24 @@
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>19</v>
@@ -6486,10 +6483,10 @@
         <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6520,7 +6517,7 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>19</v>
@@ -6538,7 +6535,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6556,24 +6553,24 @@
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>19</v>
@@ -6598,10 +6595,10 @@
         <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6632,7 +6629,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -6650,7 +6647,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6668,21 +6665,21 @@
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6708,10 +6705,10 @@
         <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6738,14 +6735,14 @@
         <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>19</v>
       </c>
@@ -6762,7 +6759,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6780,21 +6777,21 @@
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6820,13 +6817,13 @@
         <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6852,14 +6849,14 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
       </c>
@@ -6876,7 +6873,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6891,24 +6888,24 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6931,13 +6928,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6964,14 +6961,14 @@
         <v>19</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>19</v>
       </c>
@@ -6988,7 +6985,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7003,7 +7000,7 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>19</v>
@@ -7012,19 +7009,19 @@
         <v>173</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7043,16 +7040,16 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7102,7 +7099,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7117,24 +7114,24 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7160,13 +7157,13 @@
         <v>192</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7192,14 +7189,14 @@
         <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>19</v>
       </c>
@@ -7216,7 +7213,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7245,10 +7242,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7271,13 +7268,13 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7328,7 +7325,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7346,25 +7343,25 @@
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7383,13 +7380,13 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7440,7 +7437,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7455,13 +7452,13 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>19</v>
@@ -7469,10 +7466,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7495,13 +7492,13 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7552,7 +7549,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7581,10 +7578,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7607,16 +7604,16 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7666,7 +7663,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7681,13 +7678,13 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>19</v>
@@ -7695,10 +7692,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7721,13 +7718,13 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7778,7 +7775,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7793,24 +7790,24 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL47" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7833,16 +7830,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7892,7 +7889,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7904,27 +7901,27 @@
         <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7947,7 +7944,7 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>169</v>
@@ -8033,10 +8030,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8147,14 +8144,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8176,10 +8173,10 @@
         <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>153</v>
@@ -8234,7 +8231,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8263,10 +8260,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8292,13 +8289,13 @@
         <v>192</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8324,14 +8321,14 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>19</v>
       </c>
@@ -8348,7 +8345,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8357,30 +8354,30 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8403,13 +8400,13 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8460,7 +8457,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8481,18 +8478,18 @@
         <v>19</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8515,16 +8512,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8574,7 +8571,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8583,30 +8580,30 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8629,13 +8626,13 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8686,7 +8683,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8701,24 +8698,24 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8741,16 +8738,16 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8800,7 +8797,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8829,10 +8826,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8855,16 +8852,16 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8914,7 +8911,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8929,24 +8926,24 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>466</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8969,13 +8966,13 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9026,7 +9023,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -9050,15 +9047,15 @@
         <v>19</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9081,13 +9078,13 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9138,7 +9135,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9162,15 +9159,15 @@
         <v>19</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9193,16 +9190,16 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9252,7 +9249,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9267,24 +9264,24 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9307,16 +9304,16 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9364,7 +9361,7 @@
         <v>138</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9393,10 +9390,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9419,7 +9416,7 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>169</v>
@@ -9505,10 +9502,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9619,14 +9616,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9648,10 +9645,10 @@
         <v>134</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>153</v>
@@ -9706,7 +9703,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9735,10 +9732,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9764,10 +9761,10 @@
         <v>192</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9794,11 +9791,11 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -9816,7 +9813,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9845,14 +9842,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9871,13 +9868,13 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9904,14 +9901,14 @@
         <v>19</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>500</v>
-      </c>
       <c r="AA66" t="s" s="2">
         <v>19</v>
       </c>
@@ -9928,7 +9925,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9943,27 +9940,27 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>504</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>19</v>
@@ -9985,16 +9982,16 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M67" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10044,7 +10041,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10073,10 +10070,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10099,7 +10096,7 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>169</v>
@@ -10185,10 +10182,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10299,14 +10296,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10328,10 +10325,10 @@
         <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>153</v>
@@ -10386,7 +10383,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10415,10 +10412,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10444,10 +10441,10 @@
         <v>192</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10478,7 +10475,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>19</v>
@@ -10496,7 +10493,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10525,10 +10522,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10637,10 +10634,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10751,10 +10748,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10867,10 +10864,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B75" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10979,10 +10976,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11093,10 +11090,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11180,7 +11177,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11201,18 +11198,18 @@
         <v>19</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11235,16 +11232,16 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11294,7 +11291,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11315,18 +11312,18 @@
         <v>19</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11352,21 +11349,21 @@
         <v>107</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>19</v>
@@ -11408,7 +11405,7 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11417,7 +11414,7 @@
         <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>99</v>
@@ -11429,18 +11426,18 @@
         <v>19</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11463,17 +11460,17 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>19</v>
@@ -11522,7 +11519,7 @@
         <v>19</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11531,7 +11528,7 @@
         <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>99</v>
@@ -11543,18 +11540,18 @@
         <v>19</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11577,19 +11574,19 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>19</v>
@@ -11638,7 +11635,7 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11659,18 +11656,18 @@
         <v>19</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11693,19 +11690,19 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>19</v>
@@ -11754,7 +11751,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11775,22 +11772,22 @@
         <v>19</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11809,13 +11806,13 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11846,7 +11843,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>19</v>
@@ -11864,7 +11861,7 @@
         <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11879,24 +11876,24 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>504</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11919,16 +11916,16 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11978,7 +11975,7 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11999,7 +11996,7 @@
         <v>19</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>19</v>
@@ -12007,10 +12004,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12033,7 +12030,7 @@
         <v>19</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>169</v>
@@ -12119,10 +12116,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12233,14 +12230,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12262,10 +12259,10 @@
         <v>134</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>153</v>
@@ -12320,7 +12317,7 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12349,14 +12346,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12375,13 +12372,13 @@
         <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12408,11 +12405,11 @@
         <v>19</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y88" s="2"/>
       <c r="Z88" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>19</v>
@@ -12430,7 +12427,7 @@
         <v>19</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12445,24 +12442,24 @@
         <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>502</v>
-      </c>
       <c r="AM88" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12488,10 +12485,10 @@
         <v>192</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12521,11 +12518,11 @@
         <v>111</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>557</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>19</v>
       </c>
@@ -12542,7 +12539,7 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12566,15 +12563,15 @@
         <v>173</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12597,16 +12594,16 @@
         <v>19</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12656,7 +12653,7 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12677,7 +12674,7 @@
         <v>19</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>19</v>
@@ -12685,10 +12682,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12714,16 +12711,16 @@
         <v>192</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>19</v>
@@ -12748,14 +12745,14 @@
         <v>19</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>571</v>
-      </c>
       <c r="AA91" t="s" s="2">
         <v>19</v>
       </c>
@@ -12772,7 +12769,7 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -12793,18 +12790,18 @@
         <v>19</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>573</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12830,10 +12827,10 @@
         <v>192</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12860,14 +12857,14 @@
         <v>19</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>578</v>
-      </c>
       <c r="AA92" t="s" s="2">
         <v>19</v>
       </c>
@@ -12884,7 +12881,7 @@
         <v>19</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12905,18 +12902,18 @@
         <v>19</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>580</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12942,13 +12939,13 @@
         <v>192</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12974,14 +12971,14 @@
         <v>19</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y93" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="Z93" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="Z93" t="s" s="2">
-        <v>586</v>
-      </c>
       <c r="AA93" t="s" s="2">
         <v>19</v>
       </c>
@@ -12998,7 +12995,7 @@
         <v>19</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -13019,18 +13016,18 @@
         <v>19</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>588</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13053,16 +13050,16 @@
         <v>19</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13112,7 +13109,7 @@
         <v>19</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13133,7 +13130,7 @@
         <v>19</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>19</v>
@@ -13141,10 +13138,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13167,7 +13164,7 @@
         <v>19</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>169</v>
@@ -13253,10 +13250,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13363,13 +13360,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C97" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>19</v>
@@ -13391,13 +13388,13 @@
         <v>19</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13477,13 +13474,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>19</v>
@@ -13505,13 +13502,13 @@
         <v>19</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13591,14 +13588,14 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13620,10 +13617,10 @@
         <v>134</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>153</v>
@@ -13678,7 +13675,7 @@
         <v>19</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -13707,10 +13704,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13736,10 +13733,10 @@
         <v>157</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13790,7 +13787,7 @@
         <v>19</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -13814,15 +13811,15 @@
         <v>163</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13845,13 +13842,13 @@
         <v>19</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13902,7 +13899,7 @@
         <v>19</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -13923,7 +13920,7 @@
         <v>19</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>19</v>
@@ -13931,10 +13928,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13960,10 +13957,10 @@
         <v>192</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13990,14 +13987,14 @@
         <v>19</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="Z102" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="Z102" t="s" s="2">
-        <v>618</v>
-      </c>
       <c r="AA102" t="s" s="2">
         <v>19</v>
       </c>
@@ -14014,7 +14011,7 @@
         <v>19</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14035,18 +14032,18 @@
         <v>19</v>
       </c>
       <c r="AM102" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>620</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14072,10 +14069,10 @@
         <v>192</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14102,14 +14099,14 @@
         <v>19</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y103" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="Z103" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="Z103" t="s" s="2">
-        <v>625</v>
-      </c>
       <c r="AA103" t="s" s="2">
         <v>19</v>
       </c>
@@ -14126,7 +14123,7 @@
         <v>19</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14150,15 +14147,15 @@
         <v>173</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14181,13 +14178,13 @@
         <v>19</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14238,7 +14235,7 @@
         <v>19</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14259,18 +14256,18 @@
         <v>19</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>631</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14296,10 +14293,10 @@
         <v>192</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14330,7 +14327,7 @@
       </c>
       <c r="Y105" s="2"/>
       <c r="Z105" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>19</v>
@@ -14348,7 +14345,7 @@
         <v>19</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14369,18 +14366,18 @@
         <v>19</v>
       </c>
       <c r="AM105" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>637</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14403,16 +14400,16 @@
         <v>19</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14462,7 +14459,7 @@
         <v>19</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14483,7 +14480,7 @@
         <v>19</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>19</v>
@@ -14491,10 +14488,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14517,7 +14514,7 @@
         <v>19</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>169</v>
@@ -14603,10 +14600,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14717,14 +14714,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14746,10 +14743,10 @@
         <v>134</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>153</v>
@@ -14804,7 +14801,7 @@
         <v>19</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -14833,10 +14830,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14859,13 +14856,13 @@
         <v>19</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14916,7 +14913,7 @@
         <v>19</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>87</v>
@@ -14931,24 +14928,24 @@
         <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AL110" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AL110" t="s" s="2">
+      <c r="AM110" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN110" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>652</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14974,13 +14971,13 @@
         <v>107</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15009,11 +15006,11 @@
         <v>111</v>
       </c>
       <c r="Y111" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="Z111" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="Z111" t="s" s="2">
-        <v>658</v>
-      </c>
       <c r="AA111" t="s" s="2">
         <v>19</v>
       </c>
@@ -15030,7 +15027,7 @@
         <v>19</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15051,7 +15048,7 @@
         <v>19</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>19</v>
@@ -15059,10 +15056,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15088,13 +15085,13 @@
         <v>192</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15120,14 +15117,14 @@
         <v>19</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y112" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="Z112" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="Z112" t="s" s="2">
-        <v>665</v>
-      </c>
       <c r="AA112" t="s" s="2">
         <v>19</v>
       </c>
@@ -15144,7 +15141,7 @@
         <v>19</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -15173,10 +15170,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15199,13 +15196,13 @@
         <v>19</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15256,7 +15253,7 @@
         <v>19</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -15277,7 +15274,7 @@
         <v>19</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>19</v>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:24:04+00:00</t>
+    <t>2024-09-17T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:52:39+00:00</t>
+    <t>2024-09-17T14:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:02:22+00:00</t>
+    <t>2024-09-17T14:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:11:23+00:00</t>
+    <t>2024-09-17T14:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:20:09+00:00</t>
+    <t>2024-09-17T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:52:20+00:00</t>
+    <t>2024-09-17T17:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T17:35:28+00:00</t>
+    <t>2024-09-17T18:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:06:53+00:00</t>
+    <t>2024-09-17T18:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:22:57+00:00</t>
+    <t>2024-09-17T20:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:06:55+00:00</t>
+    <t>2024-09-17T20:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:22:56+00:00</t>
+    <t>2024-09-18T05:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T05:27:51+00:00</t>
+    <t>2024-09-19T11:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T11:50:53+00:00</t>
+    <t>2024-09-19T12:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:04:20+00:00</t>
+    <t>2024-09-22T15:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T15:40:07+00:00</t>
+    <t>2024-09-23T07:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T07:19:12+00:00</t>
+    <t>2024-09-23T11:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:09:48+00:00</t>
+    <t>2024-09-23T11:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:29:53+00:00</t>
+    <t>2024-09-23T11:42:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:42:54+00:00</t>
+    <t>2024-09-23T12:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T12:18:50+00:00</t>
+    <t>2024-09-23T18:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T18:28:00+00:00</t>
+    <t>2024-09-23T19:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:43:17+00:00</t>
+    <t>2024-09-23T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:56:54+00:00</t>
+    <t>2024-09-24T07:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T07:39:02+00:00</t>
+    <t>2024-09-25T11:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="664">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:00:26+00:00</t>
+    <t>2024-09-25T11:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,19 +453,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.extension:AnzahlVerlegungen</t>
-  </si>
-  <si>
-    <t>AnzahlVerlegungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-AnzahlVerlegungen}
-</t>
-  </si>
-  <si>
-    <t>MOPED Extension für die Anzahl der Verlegungen</t>
   </si>
   <si>
     <t>Encounter.extension:Unfalldatum</t>
@@ -2412,7 +2399,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2423,7 +2410,7 @@
   <cols>
     <col min="1" max="1" width="56.9453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.93359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.58984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3607,41 +3594,43 @@
         <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>19</v>
       </c>
@@ -3689,7 +3678,7 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3710,7 +3699,7 @@
         <v>19</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>19</v>
@@ -3718,14 +3707,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3738,26 +3727,22 @@
         <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>19</v>
       </c>
@@ -3793,19 +3778,17 @@
         <v>19</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3817,29 +3800,31 @@
         <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>19</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>19</v>
       </c>
@@ -3848,7 +3833,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>19</v>
@@ -3860,13 +3845,13 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3905,17 +3890,19 @@
         <v>19</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AC13" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3930,28 +3917,26 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>19</v>
       </c>
@@ -3969,16 +3954,16 @@
         <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4029,50 +4014,50 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>19</v>
@@ -4084,15 +4069,17 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -4129,31 +4116,31 @@
         <v>19</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>19</v>
@@ -4162,7 +4149,7 @@
         <v>19</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>19</v>
@@ -4170,44 +4157,46 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>19</v>
       </c>
@@ -4231,43 +4220,43 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>19</v>
@@ -4276,18 +4265,18 @@
         <v>19</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4304,25 +4293,25 @@
         <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -4349,11 +4338,9 @@
       <c r="X17" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>186</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>19</v>
@@ -4371,7 +4358,7 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -4392,18 +4379,18 @@
         <v>19</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>132</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4423,23 +4410,19 @@
         <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>19</v>
       </c>
@@ -4463,11 +4446,13 @@
         <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>19</v>
@@ -4485,7 +4470,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4494,10 +4479,10 @@
         <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>19</v>
@@ -4506,29 +4491,29 @@
         <v>19</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -4540,15 +4525,17 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -4585,31 +4572,31 @@
         <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
@@ -4618,7 +4605,7 @@
         <v>19</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>19</v>
@@ -4626,14 +4613,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4649,21 +4636,23 @@
         <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>19</v>
       </c>
@@ -4699,19 +4688,19 @@
         <v>19</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4723,7 +4712,7 @@
         <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>19</v>
@@ -4732,18 +4721,18 @@
         <v>19</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>19</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4754,7 +4743,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -4763,23 +4752,19 @@
         <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>19</v>
       </c>
@@ -4827,19 +4812,19 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>19</v>
@@ -4848,29 +4833,29 @@
         <v>19</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
@@ -4882,15 +4867,17 @@
         <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4927,31 +4914,31 @@
         <v>19</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
@@ -4960,7 +4947,7 @@
         <v>19</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>19</v>
@@ -4968,21 +4955,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>19</v>
@@ -4991,21 +4978,23 @@
         <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>19</v>
       </c>
@@ -5041,31 +5030,31 @@
         <v>19</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>19</v>
@@ -5074,18 +5063,18 @@
         <v>19</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>19</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5108,20 +5097,18 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
       </c>
@@ -5169,7 +5156,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -5190,18 +5177,18 @@
         <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5209,7 +5196,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
@@ -5224,24 +5211,24 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>19</v>
@@ -5283,7 +5270,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5292,7 +5279,7 @@
         <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>99</v>
@@ -5304,18 +5291,18 @@
         <v>19</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5323,7 +5310,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
@@ -5338,24 +5325,24 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>19</v>
@@ -5397,7 +5384,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5406,7 +5393,7 @@
         <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>99</v>
@@ -5418,18 +5405,18 @@
         <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5452,17 +5439,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -5511,7 +5500,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5520,7 +5509,7 @@
         <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>99</v>
@@ -5532,18 +5521,18 @@
         <v>19</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5566,19 +5555,19 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -5627,7 +5616,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5648,18 +5637,18 @@
         <v>19</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5682,19 +5671,19 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -5707,7 +5696,7 @@
         <v>19</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>19</v>
+        <v>275</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>19</v>
@@ -5743,7 +5732,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5764,18 +5753,18 @@
         <v>19</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5798,20 +5787,18 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>19</v>
       </c>
@@ -5823,7 +5810,7 @@
         <v>19</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>19</v>
@@ -5859,7 +5846,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5868,7 +5855,7 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>99</v>
@@ -5880,18 +5867,18 @@
         <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5914,17 +5901,15 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5937,7 +5922,7 @@
         <v>19</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>19</v>
@@ -5973,7 +5958,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5982,7 +5967,7 @@
         <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>99</v>
@@ -5994,18 +5979,18 @@
         <v>19</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6028,15 +6013,17 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -6085,7 +6072,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -6106,18 +6093,18 @@
         <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6125,7 +6112,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>87</v>
@@ -6134,22 +6121,22 @@
         <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6175,13 +6162,13 @@
         <v>19</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>19</v>
+        <v>311</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>19</v>
@@ -6199,10 +6186,10 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>87</v>
@@ -6214,24 +6201,24 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6239,32 +6226,30 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -6289,37 +6274,35 @@
         <v>19</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>111</v>
+        <v>319</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
@@ -6328,26 +6311,28 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>19</v>
       </c>
@@ -6356,7 +6341,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -6368,13 +6353,13 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6401,29 +6386,29 @@
         <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6441,24 +6426,24 @@
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>19</v>
@@ -6480,13 +6465,13 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6517,7 +6502,7 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>19</v>
@@ -6535,7 +6520,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6553,25 +6538,23 @@
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>19</v>
       </c>
@@ -6589,16 +6572,16 @@
         <v>19</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6625,11 +6608,13 @@
         <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -6647,13 +6632,13 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>19</v>
@@ -6665,21 +6650,21 @@
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6690,7 +6675,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
@@ -6699,18 +6684,20 @@
         <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -6735,37 +6722,37 @@
         <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Z38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AA38" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>19</v>
@@ -6774,24 +6761,24 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6814,17 +6801,15 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>351</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -6849,13 +6834,13 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -6873,7 +6858,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6888,35 +6873,35 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>351</v>
+        <v>19</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>352</v>
+        <v>169</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
@@ -6928,15 +6913,17 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6961,13 +6948,13 @@
         <v>19</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>358</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>359</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>19</v>
@@ -6985,13 +6972,13 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>19</v>
@@ -7000,28 +6987,28 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>19</v>
+        <v>364</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>173</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>362</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7037,19 +7024,19 @@
         <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>188</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7075,13 +7062,13 @@
         <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>19</v>
+        <v>371</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>19</v>
@@ -7099,7 +7086,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7114,24 +7101,24 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>367</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>369</v>
+        <v>19</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>370</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7142,7 +7129,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>19</v>
@@ -7151,20 +7138,18 @@
         <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>192</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -7189,13 +7174,13 @@
         <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>375</v>
+        <v>19</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>376</v>
+        <v>19</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>19</v>
@@ -7213,13 +7198,13 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>19</v>
@@ -7231,25 +7216,25 @@
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>19</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>19</v>
+        <v>380</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7265,16 +7250,16 @@
         <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7325,7 +7310,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7340,28 +7325,28 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>19</v>
+        <v>384</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>381</v>
+        <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>173</v>
+        <v>385</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>382</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>384</v>
+        <v>19</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7380,13 +7365,13 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7437,7 +7422,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7452,13 +7437,13 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>389</v>
+        <v>169</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>19</v>
@@ -7480,7 +7465,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -7500,7 +7485,9 @@
       <c r="M45" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -7555,7 +7542,7 @@
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>19</v>
@@ -7564,13 +7551,13 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>19</v>
+        <v>395</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>173</v>
+        <v>396</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>19</v>
@@ -7578,10 +7565,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7604,17 +7591,15 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7663,7 +7648,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7678,24 +7663,24 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>19</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7706,7 +7691,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>19</v>
@@ -7715,18 +7700,20 @@
         <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -7775,39 +7762,39 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>409</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7818,7 +7805,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>19</v>
@@ -7827,20 +7814,18 @@
         <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>409</v>
+        <v>225</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>410</v>
+        <v>165</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7889,50 +7874,50 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>408</v>
+        <v>167</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>413</v>
+        <v>19</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>414</v>
+        <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>415</v>
+        <v>169</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>416</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -7944,15 +7929,17 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -8001,19 +7988,19 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>19</v>
@@ -8022,7 +8009,7 @@
         <v>19</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>19</v>
@@ -8030,14 +8017,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>150</v>
+        <v>416</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8050,24 +8037,26 @@
         <v>19</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>177</v>
+        <v>418</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
       </c>
@@ -8115,7 +8104,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8136,7 +8125,7 @@
         <v>19</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>19</v>
@@ -8144,14 +8133,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>420</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8164,13 +8153,13 @@
         <v>19</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>421</v>
@@ -8179,11 +8168,9 @@
         <v>422</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>19</v>
       </c>
@@ -8207,13 +8194,13 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>19</v>
+        <v>424</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>19</v>
+        <v>422</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>19</v>
+        <v>425</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -8231,7 +8218,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8240,30 +8227,30 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>19</v>
+        <v>426</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>19</v>
+        <v>427</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>132</v>
+        <v>428</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>19</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8274,7 +8261,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
@@ -8283,20 +8270,18 @@
         <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -8321,13 +8306,13 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>428</v>
+        <v>19</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>426</v>
+        <v>19</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>429</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>19</v>
@@ -8345,39 +8330,39 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>430</v>
+        <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>431</v>
+        <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8397,18 +8382,20 @@
         <v>19</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>295</v>
+        <v>436</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8457,7 +8444,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8466,30 +8453,30 @@
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>19</v>
+        <v>426</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>19</v>
+        <v>401</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>19</v>
+        <v>440</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8500,7 +8487,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>19</v>
@@ -8512,17 +8499,15 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -8571,39 +8556,39 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>430</v>
+        <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>444</v>
+        <v>19</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8623,18 +8608,20 @@
         <v>19</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -8683,7 +8670,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8698,24 +8685,24 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>451</v>
+        <v>132</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>452</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8726,7 +8713,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>19</v>
@@ -8738,7 +8725,7 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>454</v>
+        <v>291</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>455</v>
@@ -8797,13 +8784,13 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>19</v>
@@ -8812,24 +8799,24 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>19</v>
+        <v>458</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>132</v>
+        <v>460</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>19</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8852,17 +8839,15 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>295</v>
+        <v>463</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -8911,7 +8896,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8926,24 +8911,24 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>462</v>
+        <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>463</v>
+        <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>464</v>
+        <v>19</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8966,7 +8951,7 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>468</v>
@@ -9023,7 +9008,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -9078,15 +9063,17 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -9150,24 +9137,24 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>19</v>
+        <v>458</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>19</v>
+        <v>476</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9178,7 +9165,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>19</v>
@@ -9187,19 +9174,19 @@
         <v>19</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>476</v>
+        <v>405</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9237,25 +9224,23 @@
         <v>19</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>19</v>
@@ -9264,16 +9249,16 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>462</v>
+        <v>19</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>480</v>
+        <v>19</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>481</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -9292,7 +9277,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>19</v>
@@ -9301,20 +9286,18 @@
         <v>19</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>409</v>
+        <v>225</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>483</v>
+        <v>165</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -9351,29 +9334,31 @@
         <v>19</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AC61" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>482</v>
+        <v>167</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>19</v>
@@ -9382,7 +9367,7 @@
         <v>19</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>19</v>
@@ -9390,21 +9375,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>19</v>
@@ -9416,15 +9401,17 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>19</v>
@@ -9473,19 +9460,19 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>19</v>
@@ -9494,7 +9481,7 @@
         <v>19</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>19</v>
@@ -9502,14 +9489,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>150</v>
+        <v>416</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9522,24 +9509,26 @@
         <v>19</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>177</v>
+        <v>418</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>19</v>
       </c>
@@ -9587,7 +9576,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9608,7 +9597,7 @@
         <v>19</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>19</v>
@@ -9616,14 +9605,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>420</v>
+        <v>19</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9636,26 +9625,22 @@
         <v>19</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>19</v>
       </c>
@@ -9679,13 +9664,11 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>19</v>
+        <v>488</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
@@ -9703,7 +9686,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9715,7 +9698,7 @@
         <v>19</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>19</v>
@@ -9724,7 +9707,7 @@
         <v>19</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>19</v>
@@ -9739,7 +9722,7 @@
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>19</v>
+        <v>490</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9758,13 +9741,13 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>192</v>
+        <v>491</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9791,11 +9774,13 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -9828,35 +9813,37 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>19</v>
+        <v>496</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>19</v>
+        <v>497</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>19</v>
+        <v>498</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>19</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="D66" t="s" s="2">
-        <v>494</v>
+        <v>19</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>19</v>
@@ -9868,15 +9855,17 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>495</v>
+        <v>405</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>19</v>
@@ -9901,13 +9890,13 @@
         <v>19</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>323</v>
+        <v>19</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>498</v>
+        <v>19</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>499</v>
+        <v>19</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>19</v>
@@ -9925,7 +9914,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9940,28 +9929,26 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>501</v>
+        <v>19</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>502</v>
+        <v>19</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>503</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>505</v>
-      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>19</v>
       </c>
@@ -9979,20 +9966,18 @@
         <v>19</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>409</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>506</v>
+        <v>165</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -10041,19 +10026,19 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>482</v>
+        <v>167</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>19</v>
@@ -10062,7 +10047,7 @@
         <v>19</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>19</v>
@@ -10070,21 +10055,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>19</v>
@@ -10096,15 +10081,17 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -10153,19 +10140,19 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>19</v>
@@ -10174,7 +10161,7 @@
         <v>19</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>19</v>
@@ -10182,14 +10169,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>150</v>
+        <v>416</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10202,24 +10189,26 @@
         <v>19</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>177</v>
+        <v>418</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>19</v>
       </c>
@@ -10267,7 +10256,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10288,7 +10277,7 @@
         <v>19</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>19</v>
@@ -10296,14 +10285,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>420</v>
+        <v>19</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10316,26 +10305,22 @@
         <v>19</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>19</v>
       </c>
@@ -10359,13 +10344,11 @@
         <v>19</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>19</v>
+        <v>488</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>19</v>
@@ -10383,7 +10366,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10395,7 +10378,7 @@
         <v>19</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>19</v>
@@ -10404,7 +10387,7 @@
         <v>19</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>19</v>
@@ -10412,10 +10395,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10426,7 +10409,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>19</v>
@@ -10435,16 +10418,16 @@
         <v>19</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>490</v>
+        <v>165</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>491</v>
+        <v>166</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10471,11 +10454,13 @@
         <v>19</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y71" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z71" t="s" s="2">
-        <v>492</v>
+        <v>19</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>19</v>
@@ -10493,19 +10478,19 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>489</v>
+        <v>167</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>19</v>
@@ -10514,7 +10499,7 @@
         <v>19</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>19</v>
@@ -10522,21 +10507,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>19</v>
@@ -10548,15 +10533,17 @@
         <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>19</v>
@@ -10593,31 +10580,31 @@
         <v>19</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>19</v>
@@ -10626,7 +10613,7 @@
         <v>19</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>19</v>
@@ -10634,14 +10621,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10657,21 +10644,23 @@
         <v>19</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>19</v>
       </c>
@@ -10707,19 +10696,19 @@
         <v>19</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10731,7 +10720,7 @@
         <v>19</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>19</v>
@@ -10740,18 +10729,18 @@
         <v>19</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>19</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10762,7 +10751,7 @@
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>19</v>
@@ -10771,23 +10760,19 @@
         <v>19</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>19</v>
       </c>
@@ -10835,19 +10820,19 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>19</v>
@@ -10856,29 +10841,29 @@
         <v>19</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>213</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>19</v>
@@ -10890,15 +10875,17 @@
         <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>19</v>
@@ -10935,31 +10922,31 @@
         <v>19</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>19</v>
@@ -10968,7 +10955,7 @@
         <v>19</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>19</v>
@@ -10976,21 +10963,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>19</v>
@@ -10999,21 +10986,23 @@
         <v>19</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>19</v>
       </c>
@@ -11049,31 +11038,31 @@
         <v>19</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>19</v>
@@ -11082,18 +11071,18 @@
         <v>19</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>19</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11116,20 +11105,18 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>19</v>
       </c>
@@ -11177,7 +11164,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11198,18 +11185,18 @@
         <v>19</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11232,24 +11219,24 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>19</v>
+        <v>523</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>19</v>
@@ -11291,7 +11278,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11300,7 +11287,7 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>99</v>
@@ -11312,18 +11299,18 @@
         <v>19</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11346,24 +11333,24 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>527</v>
+        <v>19</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>19</v>
@@ -11405,7 +11392,7 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11414,7 +11401,7 @@
         <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>99</v>
@@ -11426,18 +11413,18 @@
         <v>19</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11460,17 +11447,19 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O80" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>19</v>
@@ -11519,7 +11508,7 @@
         <v>19</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11528,7 +11517,7 @@
         <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>99</v>
@@ -11540,18 +11529,18 @@
         <v>19</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11574,19 +11563,19 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>19</v>
@@ -11635,7 +11624,7 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11656,29 +11645,29 @@
         <v>19</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>19</v>
+        <v>490</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>19</v>
@@ -11690,20 +11679,16 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>229</v>
+        <v>491</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>266</v>
+        <v>492</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>19</v>
       </c>
@@ -11727,13 +11712,11 @@
         <v>19</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>19</v>
@@ -11751,13 +11734,13 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>270</v>
+        <v>489</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>19</v>
@@ -11766,28 +11749,28 @@
         <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>19</v>
+        <v>496</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>19</v>
+        <v>497</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>271</v>
+        <v>498</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>272</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>494</v>
+        <v>19</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11806,15 +11789,17 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>495</v>
+        <v>405</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>19</v>
@@ -11839,11 +11824,13 @@
         <v>19</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y83" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z83" t="s" s="2">
-        <v>535</v>
+        <v>19</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>19</v>
@@ -11861,7 +11848,7 @@
         <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11876,24 +11863,24 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>501</v>
+        <v>19</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>503</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11904,7 +11891,7 @@
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>19</v>
@@ -11913,20 +11900,18 @@
         <v>19</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>409</v>
+        <v>225</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>537</v>
+        <v>165</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>19</v>
@@ -11975,19 +11960,19 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>536</v>
+        <v>167</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>19</v>
@@ -11996,7 +11981,7 @@
         <v>19</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>540</v>
+        <v>169</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>19</v>
@@ -12004,21 +11989,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>19</v>
@@ -12030,15 +12015,17 @@
         <v>19</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>19</v>
@@ -12087,19 +12074,19 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>19</v>
@@ -12108,7 +12095,7 @@
         <v>19</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>19</v>
@@ -12116,14 +12103,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>150</v>
+        <v>416</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12136,24 +12123,26 @@
         <v>19</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>177</v>
+        <v>418</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>19</v>
       </c>
@@ -12201,7 +12190,7 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12222,7 +12211,7 @@
         <v>19</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>19</v>
@@ -12230,14 +12219,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>420</v>
+        <v>541</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12250,26 +12239,22 @@
         <v>19</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>134</v>
+        <v>542</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>421</v>
+        <v>543</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>19</v>
       </c>
@@ -12293,13 +12278,11 @@
         <v>19</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>19</v>
+        <v>545</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>19</v>
@@ -12317,7 +12300,7 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>423</v>
+        <v>540</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12329,31 +12312,31 @@
         <v>19</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>19</v>
+        <v>496</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>19</v>
+        <v>497</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>132</v>
+        <v>546</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>19</v>
+        <v>547</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>545</v>
+        <v>19</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12369,16 +12352,16 @@
         <v>19</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>546</v>
+        <v>188</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12405,11 +12388,13 @@
         <v>19</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="Y88" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="Z88" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>19</v>
@@ -12427,7 +12412,7 @@
         <v>19</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12442,24 +12427,24 @@
         <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>501</v>
+        <v>19</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>550</v>
+        <v>169</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12482,15 +12467,17 @@
         <v>19</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>192</v>
+        <v>555</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>19</v>
@@ -12515,13 +12502,13 @@
         <v>19</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>555</v>
+        <v>19</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>556</v>
+        <v>19</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>19</v>
@@ -12539,7 +12526,7 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12560,18 +12547,18 @@
         <v>19</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>173</v>
+        <v>559</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>557</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12594,18 +12581,20 @@
         <v>19</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>559</v>
+        <v>188</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>19</v>
       </c>
@@ -12629,13 +12618,13 @@
         <v>19</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>19</v>
+        <v>565</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>19</v>
+        <v>566</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>19</v>
@@ -12653,7 +12642,7 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12674,18 +12663,18 @@
         <v>19</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>19</v>
+        <v>568</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12708,20 +12697,16 @@
         <v>19</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>19</v>
       </c>
@@ -12745,31 +12730,31 @@
         <v>19</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF91" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -12790,18 +12775,18 @@
         <v>19</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12824,15 +12809,17 @@
         <v>19</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>19</v>
@@ -12857,31 +12844,31 @@
         <v>19</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF92" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12902,18 +12889,18 @@
         <v>19</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12924,7 +12911,7 @@
         <v>77</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>19</v>
@@ -12936,16 +12923,16 @@
         <v>19</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>192</v>
+        <v>405</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12971,37 +12958,37 @@
         <v>19</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>323</v>
+        <v>19</v>
       </c>
       <c r="Y93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF93" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="Z93" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>580</v>
-      </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>19</v>
@@ -13016,18 +13003,18 @@
         <v>19</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>587</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13050,17 +13037,15 @@
         <v>19</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>409</v>
+        <v>225</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>589</v>
+        <v>165</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>19</v>
@@ -13109,7 +13094,7 @@
         <v>19</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>588</v>
+        <v>167</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13118,10 +13103,10 @@
         <v>87</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>19</v>
@@ -13130,7 +13115,7 @@
         <v>19</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>592</v>
+        <v>169</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>19</v>
@@ -13138,10 +13123,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13152,7 +13137,7 @@
         <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>19</v>
@@ -13164,13 +13149,13 @@
         <v>19</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13209,31 +13194,29 @@
         <v>19</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC95" s="2"/>
       <c r="AD95" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>19</v>
@@ -13242,7 +13225,7 @@
         <v>19</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>19</v>
@@ -13250,12 +13233,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="D96" t="s" s="2">
         <v>19</v>
       </c>
@@ -13264,7 +13249,7 @@
         <v>77</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>19</v>
@@ -13276,13 +13261,13 @@
         <v>19</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>134</v>
+        <v>593</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>135</v>
+        <v>592</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>136</v>
+        <v>594</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13321,17 +13306,19 @@
         <v>19</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC96" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD96" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13363,7 +13350,7 @@
         <v>595</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>596</v>
@@ -13445,7 +13432,7 @@
         <v>19</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -13477,41 +13464,43 @@
         <v>599</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>19</v>
+        <v>416</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>601</v>
+        <v>134</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>600</v>
+        <v>417</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>19</v>
       </c>
@@ -13559,7 +13548,7 @@
         <v>19</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -13580,7 +13569,7 @@
         <v>19</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>19</v>
@@ -13588,46 +13577,42 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>420</v>
+        <v>19</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>421</v>
+        <v>601</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>19</v>
       </c>
@@ -13675,19 +13660,19 @@
         <v>19</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>423</v>
+        <v>600</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>19</v>
@@ -13696,10 +13681,10 @@
         <v>19</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>19</v>
+        <v>603</v>
       </c>
     </row>
     <row r="100">
@@ -13730,13 +13715,13 @@
         <v>19</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>157</v>
+        <v>605</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13808,18 +13793,18 @@
         <v>19</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>163</v>
+        <v>608</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>607</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13842,7 +13827,7 @@
         <v>19</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>609</v>
+        <v>188</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>610</v>
@@ -13875,13 +13860,13 @@
         <v>19</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>19</v>
+        <v>612</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>19</v>
+        <v>613</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>19</v>
@@ -13899,7 +13884,7 @@
         <v>19</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -13920,18 +13905,18 @@
         <v>19</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>19</v>
+        <v>615</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13954,13 +13939,13 @@
         <v>19</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13987,31 +13972,31 @@
         <v>19</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF102" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14032,18 +14017,18 @@
         <v>19</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>618</v>
+        <v>169</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14066,13 +14051,13 @@
         <v>19</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>192</v>
+        <v>605</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14099,13 +14084,13 @@
         <v>19</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>624</v>
+        <v>19</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>19</v>
@@ -14123,7 +14108,7 @@
         <v>19</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14144,18 +14129,18 @@
         <v>19</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>173</v>
+        <v>625</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14178,13 +14163,13 @@
         <v>19</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>609</v>
+        <v>188</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14211,13 +14196,11 @@
         <v>19</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y104" s="2"/>
       <c r="Z104" t="s" s="2">
-        <v>19</v>
+        <v>630</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>19</v>
@@ -14235,7 +14218,7 @@
         <v>19</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14256,18 +14239,18 @@
         <v>19</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14278,7 +14261,7 @@
         <v>77</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>19</v>
@@ -14290,15 +14273,17 @@
         <v>19</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>192</v>
+        <v>405</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>19</v>
@@ -14323,11 +14308,13 @@
         <v>19</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y105" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z105" t="s" s="2">
-        <v>634</v>
+        <v>19</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>19</v>
@@ -14345,13 +14332,13 @@
         <v>19</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>19</v>
@@ -14366,18 +14353,18 @@
         <v>19</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>636</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14388,7 +14375,7 @@
         <v>77</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>19</v>
@@ -14400,17 +14387,15 @@
         <v>19</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>409</v>
+        <v>225</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>638</v>
+        <v>165</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>640</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>19</v>
@@ -14459,19 +14444,19 @@
         <v>19</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>637</v>
+        <v>167</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>19</v>
@@ -14480,7 +14465,7 @@
         <v>19</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>641</v>
+        <v>169</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>19</v>
@@ -14488,21 +14473,21 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>19</v>
@@ -14514,15 +14499,17 @@
         <v>19</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>19</v>
@@ -14571,19 +14558,19 @@
         <v>19</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>19</v>
@@ -14592,7 +14579,7 @@
         <v>19</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>19</v>
@@ -14600,14 +14587,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>150</v>
+        <v>416</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14620,24 +14607,26 @@
         <v>19</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>177</v>
+        <v>418</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>19</v>
       </c>
@@ -14685,7 +14674,7 @@
         <v>19</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -14706,7 +14695,7 @@
         <v>19</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>19</v>
@@ -14714,46 +14703,42 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>420</v>
+        <v>19</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>134</v>
+        <v>642</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>421</v>
+        <v>643</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>19</v>
       </c>
@@ -14801,39 +14786,39 @@
         <v>19</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>423</v>
+        <v>641</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>19</v>
+        <v>645</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>19</v>
+        <v>646</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>132</v>
+        <v>441</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>19</v>
+        <v>647</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14841,7 +14826,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>87</v>
@@ -14856,15 +14841,17 @@
         <v>19</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>646</v>
+        <v>107</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>650</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>651</v>
+      </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>19</v>
@@ -14889,13 +14876,13 @@
         <v>19</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>19</v>
+        <v>652</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>19</v>
+        <v>653</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>19</v>
@@ -14913,10 +14900,10 @@
         <v>19</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>87</v>
@@ -14928,24 +14915,24 @@
         <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>649</v>
+        <v>19</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>650</v>
+        <v>19</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>445</v>
+        <v>654</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>651</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14968,16 +14955,16 @@
         <v>19</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15003,13 +14990,13 @@
         <v>19</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>19</v>
@@ -15027,7 +15014,7 @@
         <v>19</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15048,7 +15035,7 @@
         <v>19</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>658</v>
+        <v>19</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>19</v>
@@ -15056,10 +15043,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15082,17 +15069,15 @@
         <v>19</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>662</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>19</v>
@@ -15117,13 +15102,13 @@
         <v>19</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>663</v>
+        <v>19</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>664</v>
+        <v>19</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>19</v>
@@ -15141,7 +15126,7 @@
         <v>19</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -15162,121 +15147,9 @@
         <v>19</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>19</v>
+        <v>433</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AN113" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:40:05+00:00</t>
+    <t>2024-09-25T11:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:54:18+00:00</t>
+    <t>2024-09-25T12:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T12:57:21+00:00</t>
+    <t>2024-09-25T14:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:29:33+00:00</t>
+    <t>2024-09-25T14:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:44:31+00:00</t>
+    <t>2024-09-26T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:10:34+00:00</t>
+    <t>2024-09-26T07:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:17:19+00:00</t>
+    <t>2024-09-26T07:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:48:16+00:00</t>
+    <t>2024-09-26T07:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:51:13+00:00</t>
+    <t>2024-09-26T08:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:50:40+00:00</t>
+    <t>2024-09-26T08:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:56:22+00:00</t>
+    <t>2024-09-26T09:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:55:47+00:00</t>
+    <t>2024-09-26T09:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:59:14+00:00</t>
+    <t>2024-09-26T10:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T10:56:09+00:00</t>
+    <t>2024-09-26T13:32:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:32:53+00:00</t>
+    <t>2024-09-26T13:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:57:34+00:00</t>
+    <t>2024-09-27T07:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T07:18:42+00:00</t>
+    <t>2024-09-30T06:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T06:58:27+00:00</t>
+    <t>2024-09-30T08:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:02:36+00:00</t>
+    <t>2024-09-30T08:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:10:10+00:00</t>
+    <t>2024-09-30T08:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:14:13+00:00</t>
+    <t>2024-09-30T08:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:48:22+00:00</t>
+    <t>2024-09-30T09:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T09:04:34+00:00</t>
+    <t>2024-09-30T10:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T10:20:26+00:00</t>
+    <t>2024-09-30T12:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T12:24:06+00:00</t>
+    <t>2024-09-30T18:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T18:33:40+00:00</t>
+    <t>2024-10-01T09:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T09:38:16+00:00</t>
+    <t>2024-10-01T12:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T12:31:57+00:00</t>
+    <t>2024-10-07T08:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T08:22:28+00:00</t>
+    <t>2024-10-11T08:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T08:15:28+00:00</t>
+    <t>2024-10-11T09:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T09:22:23+00:00</t>
+    <t>2024-10-23T07:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:34:13+00:00</t>
+    <t>2024-10-23T11:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T11:03:56+00:00</t>
+    <t>2024-10-24T12:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="665">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T12:38:05+00:00</t>
+    <t>2024-10-24T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1533,6 +1533,10 @@
 Examples:  * pregnancy would use HealthcareService or a coding as the reason  * patient home monitoring could use Condition as the reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:use.coding.code}
+</t>
   </si>
   <si>
     <t>Encounter.reason.id</t>
@@ -9224,7 +9228,7 @@
         <v>19</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>156</v>
+        <v>482</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
@@ -9263,10 +9267,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9375,10 +9379,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9489,10 +9493,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9605,10 +9609,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9634,10 +9638,10 @@
         <v>188</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9668,7 +9672,7 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
@@ -9686,7 +9690,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9715,14 +9719,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9741,13 +9745,13 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9777,10 +9781,10 @@
         <v>319</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -9798,7 +9802,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9813,27 +9817,27 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>478</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>19</v>
@@ -9858,7 +9862,7 @@
         <v>405</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>480</v>
@@ -9943,10 +9947,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10055,10 +10059,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10169,10 +10173,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10285,10 +10289,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10314,10 +10318,10 @@
         <v>188</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10348,7 +10352,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>19</v>
@@ -10366,7 +10370,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10395,10 +10399,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10507,10 +10511,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10621,10 +10625,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10737,10 +10741,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10849,10 +10853,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10963,10 +10967,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11079,10 +11083,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11193,10 +11197,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11204,7 +11208,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>87</v>
@@ -11236,7 +11240,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>19</v>
@@ -11307,10 +11311,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11421,10 +11425,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11537,10 +11541,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11653,14 +11657,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11679,13 +11683,13 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11716,7 +11720,7 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>19</v>
@@ -11734,7 +11738,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11749,24 +11753,24 @@
         <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11792,13 +11796,13 @@
         <v>405</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11848,7 +11852,7 @@
         <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11869,7 +11873,7 @@
         <v>19</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>19</v>
@@ -11877,10 +11881,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11989,10 +11993,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12103,10 +12107,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12219,14 +12223,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12245,13 +12249,13 @@
         <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12282,7 +12286,7 @@
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>19</v>
@@ -12300,7 +12304,7 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12315,24 +12319,24 @@
         <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12358,10 +12362,10 @@
         <v>188</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12391,10 +12395,10 @@
         <v>111</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>19</v>
@@ -12412,7 +12416,7 @@
         <v>19</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12436,15 +12440,15 @@
         <v>169</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12467,16 +12471,16 @@
         <v>19</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12526,7 +12530,7 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12547,7 +12551,7 @@
         <v>19</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>19</v>
@@ -12555,10 +12559,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12584,16 +12588,16 @@
         <v>188</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>19</v>
@@ -12621,10 +12625,10 @@
         <v>335</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>19</v>
@@ -12642,7 +12646,7 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12663,18 +12667,18 @@
         <v>19</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12700,10 +12704,10 @@
         <v>188</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12733,10 +12737,10 @@
         <v>319</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>19</v>
@@ -12754,7 +12758,7 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -12775,18 +12779,18 @@
         <v>19</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12812,13 +12816,13 @@
         <v>188</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12847,10 +12851,10 @@
         <v>319</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>19</v>
@@ -12868,7 +12872,7 @@
         <v>19</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12889,18 +12893,18 @@
         <v>19</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12926,13 +12930,13 @@
         <v>405</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12982,7 +12986,7 @@
         <v>19</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -13003,7 +13007,7 @@
         <v>19</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>19</v>
@@ -13011,10 +13015,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13123,10 +13127,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13233,13 +13237,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B96" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="B96" t="s" s="2">
-        <v>590</v>
-      </c>
       <c r="C96" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>19</v>
@@ -13261,13 +13265,13 @@
         <v>19</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L96" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="M96" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13347,13 +13351,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>19</v>
@@ -13375,13 +13379,13 @@
         <v>19</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="M97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13461,10 +13465,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13577,10 +13581,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13606,10 +13610,10 @@
         <v>153</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13660,7 +13664,7 @@
         <v>19</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -13684,15 +13688,15 @@
         <v>159</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13715,13 +13719,13 @@
         <v>19</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13772,7 +13776,7 @@
         <v>19</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -13793,7 +13797,7 @@
         <v>19</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>19</v>
@@ -13801,10 +13805,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13830,10 +13834,10 @@
         <v>188</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13863,10 +13867,10 @@
         <v>319</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>19</v>
@@ -13884,7 +13888,7 @@
         <v>19</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -13905,18 +13909,18 @@
         <v>19</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13942,10 +13946,10 @@
         <v>188</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13975,10 +13979,10 @@
         <v>335</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>19</v>
@@ -13996,7 +14000,7 @@
         <v>19</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14020,15 +14024,15 @@
         <v>169</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14051,13 +14055,13 @@
         <v>19</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14108,7 +14112,7 @@
         <v>19</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14129,18 +14133,18 @@
         <v>19</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14166,10 +14170,10 @@
         <v>188</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14200,7 +14204,7 @@
       </c>
       <c r="Y104" s="2"/>
       <c r="Z104" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>19</v>
@@ -14218,7 +14222,7 @@
         <v>19</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14239,18 +14243,18 @@
         <v>19</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14276,13 +14280,13 @@
         <v>405</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14332,7 +14336,7 @@
         <v>19</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14353,7 +14357,7 @@
         <v>19</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>19</v>
@@ -14361,10 +14365,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14473,10 +14477,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14587,10 +14591,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14703,10 +14707,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14729,13 +14733,13 @@
         <v>19</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14786,7 +14790,7 @@
         <v>19</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>87</v>
@@ -14801,24 +14805,24 @@
         <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>441</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14844,13 +14848,13 @@
         <v>107</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14879,10 +14883,10 @@
         <v>111</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>19</v>
@@ -14900,7 +14904,7 @@
         <v>19</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -14921,7 +14925,7 @@
         <v>19</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>19</v>
@@ -14929,10 +14933,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14958,13 +14962,13 @@
         <v>188</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14993,10 +14997,10 @@
         <v>335</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>19</v>
@@ -15014,7 +15018,7 @@
         <v>19</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15043,10 +15047,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15072,10 +15076,10 @@
         <v>291</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15126,7 +15130,7 @@
         <v>19</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4758" uniqueCount="688">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:32:35+00:00</t>
+    <t>2024-10-24T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -962,6 +962,79 @@
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID</t>
+  </si>
+  <si>
+    <t>DatensatzID</t>
+  </si>
+  <si>
+    <t>SHA-256 verschlüsselte Aufnahmezahl</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.id</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.extension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.use</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.type</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.type.id</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.type.extension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.type.coding</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.type.coding.id</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.type.coding.system</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.type.coding.version</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.type.coding.code</t>
+  </si>
+  <si>
+    <t>ANON</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.type.coding.display</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.type.text</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.system</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.value</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.period</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:DatensatzID.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Encounter.status</t>
@@ -1921,10 +1994,6 @@
   </si>
   <si>
     <t>Encounter.admission.origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>The location/organization from which the patient came before admission</t>
@@ -2403,7 +2472,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN112"/>
+  <dimension ref="A1:AN132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6108,15 +6177,17 @@
         <v>306</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>87</v>
@@ -6125,23 +6196,21 @@
         <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -6166,13 +6235,13 @@
         <v>19</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>311</v>
+        <v>19</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>19</v>
@@ -6190,13 +6259,13 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>19</v>
@@ -6205,24 +6274,24 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>157</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>313</v>
+        <v>158</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>315</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>316</v>
+        <v>164</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6233,7 +6302,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
@@ -6242,16 +6311,16 @@
         <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>165</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6278,74 +6347,74 @@
         <v>19</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>320</v>
+        <v>19</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>316</v>
+        <v>167</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>323</v>
+        <v>19</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>324</v>
+        <v>169</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>325</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -6354,18 +6423,20 @@
         <v>19</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>172</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -6390,29 +6461,31 @@
         <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>316</v>
+        <v>175</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6424,31 +6497,29 @@
         <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>323</v>
+        <v>19</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>324</v>
+        <v>169</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>325</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>19</v>
       </c>
@@ -6463,22 +6534,26 @@
         <v>19</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>330</v>
+        <v>178</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>19</v>
       </c>
@@ -6504,9 +6579,11 @@
       <c r="X36" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y36" s="2"/>
+      <c r="Y36" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>331</v>
+        <v>183</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>19</v>
@@ -6524,13 +6601,13 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>19</v>
@@ -6542,21 +6619,21 @@
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>323</v>
+        <v>19</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>325</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6576,19 +6653,23 @@
         <v>19</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
       </c>
@@ -6612,13 +6693,11 @@
         <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>336</v>
+        <v>193</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -6636,7 +6715,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>194</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6654,21 +6733,21 @@
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>337</v>
+        <v>19</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>339</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>197</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6679,7 +6758,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
@@ -6688,20 +6767,18 @@
         <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>165</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -6726,13 +6803,13 @@
         <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>345</v>
+        <v>19</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>19</v>
@@ -6750,43 +6827,43 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>167</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>348</v>
+        <v>169</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>349</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6802,18 +6879,20 @@
         <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>351</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>172</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -6838,31 +6917,31 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>355</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6874,10 +6953,10 @@
         <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>19</v>
@@ -6886,26 +6965,26 @@
         <v>169</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>356</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>358</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
@@ -6917,18 +6996,20 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>359</v>
+        <v>202</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
+        <v>203</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>361</v>
+        <v>204</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>19</v>
       </c>
@@ -6976,13 +7057,13 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>207</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>19</v>
@@ -6991,24 +7072,24 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>208</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>366</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>211</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7031,17 +7112,15 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>165</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -7066,13 +7145,13 @@
         <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>371</v>
+        <v>19</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>372</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>19</v>
@@ -7090,7 +7169,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>367</v>
+        <v>167</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7099,10 +7178,10 @@
         <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
@@ -7111,7 +7190,7 @@
         <v>19</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>19</v>
@@ -7119,14 +7198,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>213</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7142,18 +7221,20 @@
         <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>374</v>
+        <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>172</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -7190,19 +7271,19 @@
         <v>19</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>175</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7214,38 +7295,38 @@
         <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>377</v>
+        <v>19</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>378</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>379</v>
+        <v>215</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>19</v>
@@ -7254,19 +7335,23 @@
         <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>381</v>
+        <v>101</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>382</v>
+        <v>216</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
       </c>
@@ -7314,13 +7399,13 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>379</v>
+        <v>220</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>19</v>
@@ -7329,24 +7414,24 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>384</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>385</v>
+        <v>221</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>19</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>386</v>
+        <v>224</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7357,7 +7442,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>19</v>
@@ -7366,18 +7451,20 @@
         <v>19</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>387</v>
+        <v>225</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>388</v>
+        <v>226</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -7426,13 +7513,13 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>386</v>
+        <v>229</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>19</v>
@@ -7447,18 +7534,18 @@
         <v>19</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>19</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>390</v>
+        <v>233</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7466,7 +7553,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>87</v>
@@ -7478,27 +7565,27 @@
         <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>391</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>392</v>
+        <v>234</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>19</v>
@@ -7540,7 +7627,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>390</v>
+        <v>238</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7549,30 +7636,30 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>395</v>
+        <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>396</v>
+        <v>240</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>19</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>397</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7592,19 +7679,21 @@
         <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>398</v>
+        <v>225</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>399</v>
+        <v>244</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>400</v>
+        <v>245</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>19</v>
       </c>
@@ -7652,7 +7741,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>397</v>
+        <v>247</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7661,30 +7750,30 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>401</v>
+        <v>19</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>402</v>
+        <v>248</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>403</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>404</v>
+        <v>251</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7695,7 +7784,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>19</v>
@@ -7707,18 +7796,20 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>405</v>
+        <v>252</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>406</v>
+        <v>253</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>407</v>
+        <v>254</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
       </c>
@@ -7766,39 +7857,39 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>404</v>
+        <v>257</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>409</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>410</v>
+        <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>411</v>
+        <v>258</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>412</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>324</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>413</v>
+        <v>261</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7818,19 +7909,23 @@
         <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>225</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
       </c>
@@ -7878,7 +7973,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7887,10 +7982,10 @@
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>19</v>
@@ -7899,29 +7994,29 @@
         <v>19</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>19</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>414</v>
+        <v>270</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -7930,21 +8025,23 @@
         <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>172</v>
+        <v>271</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
       </c>
@@ -7956,7 +8053,7 @@
         <v>19</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>19</v>
+        <v>275</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>19</v>
@@ -7992,19 +8089,19 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>19</v>
@@ -8013,54 +8110,52 @@
         <v>19</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>169</v>
+        <v>277</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>19</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>415</v>
+        <v>280</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>416</v>
+        <v>19</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>417</v>
+        <v>281</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>418</v>
+        <v>282</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>19</v>
       </c>
@@ -8072,7 +8167,7 @@
         <v>19</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>19</v>
@@ -8108,19 +8203,19 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>419</v>
+        <v>285</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
@@ -8129,18 +8224,18 @@
         <v>19</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>132</v>
+        <v>287</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>19</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>420</v>
+        <v>327</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>420</v>
+        <v>290</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8151,7 +8246,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
@@ -8163,17 +8258,15 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>188</v>
+        <v>291</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
+        <v>292</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -8198,13 +8291,13 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>424</v>
+        <v>19</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>422</v>
+        <v>19</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>425</v>
+        <v>19</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -8222,39 +8315,39 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>420</v>
+        <v>294</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>426</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>427</v>
+        <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>428</v>
+        <v>295</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>429</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>328</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>430</v>
+        <v>298</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8274,18 +8367,20 @@
         <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>431</v>
+        <v>300</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -8334,7 +8429,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>430</v>
+        <v>303</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8355,18 +8450,18 @@
         <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>433</v>
+        <v>304</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>434</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>435</v>
+        <v>330</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8374,7 +8469,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
@@ -8383,22 +8478,22 @@
         <v>19</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>436</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>331</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>438</v>
+        <v>332</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>439</v>
+        <v>333</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8424,13 +8519,13 @@
         <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
@@ -8448,39 +8543,39 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>435</v>
+        <v>330</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>426</v>
+        <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>440</v>
+        <v>337</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>441</v>
+        <v>338</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>442</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>443</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>443</v>
+        <v>340</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8503,13 +8598,13 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>444</v>
+        <v>188</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>445</v>
+        <v>341</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>446</v>
+        <v>342</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8536,31 +8631,29 @@
         <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>19</v>
+        <v>343</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>19</v>
+        <v>344</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>19</v>
+        <v>345</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>443</v>
+        <v>340</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8575,26 +8668,28 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>384</v>
+        <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>448</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>449</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>19</v>
       </c>
@@ -8603,7 +8698,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>19</v>
@@ -8612,20 +8707,18 @@
         <v>19</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>450</v>
+        <v>188</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -8650,13 +8743,11 @@
         <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>19</v>
+        <v>352</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>19</v>
@@ -8674,7 +8765,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>449</v>
+        <v>340</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8692,23 +8783,25 @@
         <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>19</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>19</v>
       </c>
@@ -8726,20 +8819,18 @@
         <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>291</v>
+        <v>188</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>455</v>
+        <v>354</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -8764,13 +8855,11 @@
         <v>19</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>19</v>
@@ -8788,13 +8877,13 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>454</v>
+        <v>340</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>19</v>
@@ -8803,24 +8892,24 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>458</v>
+        <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>459</v>
+        <v>347</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>460</v>
+        <v>348</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>461</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>462</v>
+        <v>356</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>462</v>
+        <v>356</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8843,13 +8932,13 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>463</v>
+        <v>188</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>464</v>
+        <v>357</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>465</v>
+        <v>358</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8876,13 +8965,13 @@
         <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>19</v>
@@ -8900,7 +8989,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>462</v>
+        <v>356</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8918,21 +9007,21 @@
         <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>19</v>
+        <v>361</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>466</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>364</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>467</v>
+        <v>364</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8943,7 +9032,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -8952,18 +9041,20 @@
         <v>19</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>463</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>468</v>
+        <v>365</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8988,13 +9079,13 @@
         <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>19</v>
+        <v>368</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>19</v>
@@ -9012,13 +9103,13 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>467</v>
+        <v>364</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>19</v>
@@ -9027,24 +9118,24 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>19</v>
+        <v>371</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>470</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>471</v>
+        <v>374</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>471</v>
+        <v>374</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9055,7 +9146,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
@@ -9064,20 +9155,18 @@
         <v>19</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>473</v>
+        <v>376</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -9102,13 +9191,13 @@
         <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>19</v>
+        <v>378</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>19</v>
+        <v>379</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>19</v>
@@ -9126,13 +9215,13 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>471</v>
+        <v>374</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>19</v>
@@ -9141,35 +9230,35 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>458</v>
+        <v>370</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>476</v>
+        <v>169</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>477</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>478</v>
+        <v>381</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>478</v>
+        <v>381</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>19</v>
+        <v>382</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>19</v>
@@ -9181,16 +9270,16 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>480</v>
+        <v>385</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9228,23 +9317,25 @@
         <v>19</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>478</v>
+        <v>381</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>19</v>
@@ -9253,24 +9344,24 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>19</v>
+        <v>389</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>19</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>391</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>483</v>
+        <v>391</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9293,15 +9384,17 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>165</v>
+        <v>392</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -9326,13 +9419,13 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>19</v>
+        <v>395</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>19</v>
+        <v>396</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -9350,7 +9443,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>167</v>
+        <v>391</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9359,10 +9452,10 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>19</v>
@@ -9371,7 +9464,7 @@
         <v>19</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>19</v>
@@ -9379,14 +9472,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9402,20 +9495,18 @@
         <v>19</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>134</v>
+        <v>398</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>172</v>
+        <v>399</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>19</v>
@@ -9464,7 +9555,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>175</v>
+        <v>397</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9476,31 +9567,31 @@
         <v>19</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>19</v>
+        <v>401</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>19</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>485</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>485</v>
+        <v>403</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9513,26 +9604,22 @@
         <v>19</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>405</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>19</v>
       </c>
@@ -9580,7 +9667,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9592,16 +9679,16 @@
         <v>19</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>132</v>
+        <v>409</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>19</v>
@@ -9609,10 +9696,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>486</v>
+        <v>410</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>486</v>
+        <v>410</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9632,16 +9719,16 @@
         <v>19</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>188</v>
+        <v>411</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>487</v>
+        <v>412</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>488</v>
+        <v>413</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9668,11 +9755,13 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z64" t="s" s="2">
-        <v>489</v>
+        <v>19</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
@@ -9690,7 +9779,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>486</v>
+        <v>410</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9711,7 +9800,7 @@
         <v>19</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>19</v>
@@ -9719,21 +9808,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>490</v>
+        <v>414</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>490</v>
+        <v>414</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>491</v>
+        <v>19</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>19</v>
@@ -9742,18 +9831,20 @@
         <v>19</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>492</v>
+        <v>415</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>493</v>
+        <v>416</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -9778,13 +9869,13 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>495</v>
+        <v>19</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>496</v>
+        <v>19</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -9802,13 +9893,13 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>490</v>
+        <v>414</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>19</v>
@@ -9817,28 +9908,26 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>497</v>
+        <v>419</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>498</v>
+        <v>19</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>499</v>
+        <v>420</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>500</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>501</v>
+        <v>421</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>19</v>
       </c>
@@ -9856,20 +9945,18 @@
         <v>19</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>503</v>
+        <v>423</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>19</v>
@@ -9918,13 +10005,13 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>19</v>
@@ -9933,24 +10020,24 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>19</v>
+        <v>425</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>19</v>
+        <v>426</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>19</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>504</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>483</v>
+        <v>428</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9961,7 +10048,7 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>19</v>
@@ -9970,18 +10057,20 @@
         <v>19</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>225</v>
+        <v>429</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>165</v>
+        <v>430</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -10030,50 +10119,50 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>167</v>
+        <v>428</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>19</v>
+        <v>433</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>19</v>
+        <v>434</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>19</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>505</v>
+        <v>437</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>19</v>
@@ -10085,17 +10174,15 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -10144,19 +10231,19 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>19</v>
@@ -10173,14 +10260,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>506</v>
+        <v>438</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>416</v>
+        <v>146</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10193,26 +10280,24 @@
         <v>19</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>417</v>
+        <v>172</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>418</v>
+        <v>173</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="O69" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>19</v>
       </c>
@@ -10260,7 +10345,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>419</v>
+        <v>175</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10281,7 +10366,7 @@
         <v>19</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>19</v>
@@ -10289,14 +10374,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>507</v>
+        <v>439</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>19</v>
+        <v>440</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10309,22 +10394,26 @@
         <v>19</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>19</v>
       </c>
@@ -10348,11 +10437,13 @@
         <v>19</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y70" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z70" t="s" s="2">
-        <v>489</v>
+        <v>19</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>19</v>
@@ -10370,7 +10461,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>486</v>
+        <v>443</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10382,7 +10473,7 @@
         <v>19</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>19</v>
@@ -10391,7 +10482,7 @@
         <v>19</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>19</v>
@@ -10399,10 +10490,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>509</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10413,7 +10504,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>19</v>
@@ -10422,18 +10513,20 @@
         <v>19</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>165</v>
+        <v>445</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>19</v>
@@ -10458,13 +10551,13 @@
         <v>19</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>19</v>
+        <v>446</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>19</v>
@@ -10482,50 +10575,50 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>167</v>
+        <v>444</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>168</v>
+        <v>450</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>19</v>
+        <v>451</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>169</v>
+        <v>452</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>19</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>19</v>
@@ -10537,17 +10630,15 @@
         <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>134</v>
+        <v>291</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>172</v>
+        <v>455</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>19</v>
@@ -10584,31 +10675,31 @@
         <v>19</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>175</v>
+        <v>454</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>19</v>
@@ -10617,18 +10708,18 @@
         <v>19</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>169</v>
+        <v>457</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>19</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>513</v>
+        <v>459</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10639,7 +10730,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>19</v>
@@ -10651,20 +10742,18 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>202</v>
+        <v>460</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>203</v>
+        <v>461</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>204</v>
+        <v>462</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>19</v>
       </c>
@@ -10712,39 +10801,39 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>207</v>
+        <v>459</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>19</v>
+        <v>450</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>19</v>
+        <v>425</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>19</v>
+        <v>464</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>208</v>
+        <v>465</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>209</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>514</v>
+        <v>467</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>515</v>
+        <v>467</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10755,7 +10844,7 @@
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>19</v>
@@ -10764,16 +10853,16 @@
         <v>19</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>89</v>
+        <v>468</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>165</v>
+        <v>469</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>166</v>
+        <v>470</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10824,43 +10913,43 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>167</v>
+        <v>467</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>169</v>
+        <v>471</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>19</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10879,16 +10968,16 @@
         <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>134</v>
+        <v>474</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>172</v>
+        <v>475</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>173</v>
+        <v>476</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>149</v>
+        <v>477</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10926,19 +11015,19 @@
         <v>19</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>175</v>
+        <v>473</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10950,7 +11039,7 @@
         <v>19</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>19</v>
@@ -10959,7 +11048,7 @@
         <v>19</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>19</v>
@@ -10967,10 +11056,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>518</v>
+        <v>478</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>519</v>
+        <v>478</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10990,23 +11079,21 @@
         <v>19</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>216</v>
+        <v>479</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>217</v>
+        <v>480</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>19</v>
       </c>
@@ -11054,7 +11141,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>220</v>
+        <v>478</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11069,24 +11156,24 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>19</v>
+        <v>482</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>19</v>
+        <v>483</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>221</v>
+        <v>484</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>222</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11106,20 +11193,18 @@
         <v>19</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>225</v>
+        <v>487</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>226</v>
+        <v>488</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>19</v>
@@ -11168,7 +11253,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>229</v>
+        <v>486</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11189,18 +11274,18 @@
         <v>19</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>231</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11208,7 +11293,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>87</v>
@@ -11220,27 +11305,25 @@
         <v>19</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>107</v>
+        <v>487</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>234</v>
+        <v>492</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>235</v>
+        <v>493</v>
       </c>
       <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>524</v>
+        <v>19</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>19</v>
@@ -11282,7 +11365,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>238</v>
+        <v>491</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11291,7 +11374,7 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>99</v>
@@ -11303,18 +11386,18 @@
         <v>19</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>241</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11334,21 +11417,21 @@
         <v>19</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>225</v>
+        <v>496</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>244</v>
+        <v>497</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>19</v>
       </c>
@@ -11396,7 +11479,7 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>247</v>
+        <v>495</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11405,30 +11488,30 @@
         <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>19</v>
+        <v>482</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>248</v>
+        <v>500</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>249</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11439,7 +11522,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>19</v>
@@ -11451,20 +11534,18 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>252</v>
+        <v>429</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>253</v>
+        <v>503</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>254</v>
+        <v>504</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>19</v>
       </c>
@@ -11500,25 +11581,23 @@
         <v>19</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="AC80" s="2"/>
       <c r="AD80" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>257</v>
+        <v>502</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>19</v>
@@ -11533,18 +11612,18 @@
         <v>19</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>259</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11564,23 +11643,19 @@
         <v>19</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>225</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>19</v>
       </c>
@@ -11628,7 +11703,7 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11637,10 +11712,10 @@
         <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>19</v>
@@ -11649,22 +11724,22 @@
         <v>19</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>268</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>491</v>
+        <v>146</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11680,18 +11755,20 @@
         <v>19</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>492</v>
+        <v>134</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>493</v>
+        <v>172</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>19</v>
@@ -11716,11 +11793,13 @@
         <v>19</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y82" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z82" t="s" s="2">
-        <v>532</v>
+        <v>19</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>19</v>
@@ -11738,7 +11817,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>490</v>
+        <v>175</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11750,31 +11829,31 @@
         <v>19</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>497</v>
+        <v>19</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>498</v>
+        <v>19</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>499</v>
+        <v>169</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>500</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>19</v>
+        <v>440</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11787,24 +11866,26 @@
         <v>19</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>405</v>
+        <v>134</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>534</v>
+        <v>441</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>535</v>
+        <v>442</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>19</v>
       </c>
@@ -11852,7 +11933,7 @@
         <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>533</v>
+        <v>443</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11864,7 +11945,7 @@
         <v>19</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>19</v>
@@ -11873,7 +11954,7 @@
         <v>19</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>537</v>
+        <v>132</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>19</v>
@@ -11881,10 +11962,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11895,7 +11976,7 @@
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>19</v>
@@ -11904,16 +11985,16 @@
         <v>19</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>165</v>
+        <v>511</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>166</v>
+        <v>512</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11940,13 +12021,11 @@
         <v>19</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>19</v>
+        <v>513</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>19</v>
@@ -11964,19 +12043,19 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>167</v>
+        <v>510</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>19</v>
@@ -11985,7 +12064,7 @@
         <v>19</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>19</v>
@@ -11993,14 +12072,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>146</v>
+        <v>515</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12016,20 +12095,18 @@
         <v>19</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>134</v>
+        <v>516</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>172</v>
+        <v>517</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>19</v>
@@ -12054,13 +12131,13 @@
         <v>19</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>19</v>
+        <v>343</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>19</v>
+        <v>519</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>19</v>
+        <v>520</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>19</v>
@@ -12078,7 +12155,7 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>175</v>
+        <v>514</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12090,63 +12167,63 @@
         <v>19</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>19</v>
+        <v>521</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>19</v>
+        <v>522</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>169</v>
+        <v>523</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>19</v>
+        <v>524</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="D86" t="s" s="2">
-        <v>416</v>
+        <v>19</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>134</v>
+        <v>429</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>417</v>
+        <v>527</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>418</v>
+        <v>504</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>19</v>
       </c>
@@ -12194,7 +12271,7 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12206,7 +12283,7 @@
         <v>19</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>19</v>
@@ -12215,7 +12292,7 @@
         <v>19</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>19</v>
@@ -12223,21 +12300,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>19</v>
@@ -12246,16 +12323,16 @@
         <v>19</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>543</v>
+        <v>225</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>544</v>
+        <v>165</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>545</v>
+        <v>166</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12282,11 +12359,13 @@
         <v>19</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y87" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z87" t="s" s="2">
-        <v>546</v>
+        <v>19</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>19</v>
@@ -12304,43 +12383,43 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>541</v>
+        <v>167</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>497</v>
+        <v>19</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>498</v>
+        <v>19</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>547</v>
+        <v>169</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>548</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>549</v>
+        <v>508</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12359,15 +12438,17 @@
         <v>19</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>550</v>
+        <v>172</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>19</v>
@@ -12392,13 +12473,13 @@
         <v>19</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>552</v>
+        <v>19</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>553</v>
+        <v>19</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>19</v>
@@ -12416,7 +12497,7 @@
         <v>19</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>549</v>
+        <v>175</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12428,7 +12509,7 @@
         <v>19</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>19</v>
@@ -12440,19 +12521,19 @@
         <v>169</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>554</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>19</v>
+        <v>440</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12465,24 +12546,26 @@
         <v>19</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>556</v>
+        <v>134</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>557</v>
+        <v>441</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>558</v>
+        <v>442</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>19</v>
       </c>
@@ -12530,7 +12613,7 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>555</v>
+        <v>443</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12542,7 +12625,7 @@
         <v>19</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>19</v>
@@ -12551,7 +12634,7 @@
         <v>19</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>560</v>
+        <v>132</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>19</v>
@@ -12559,10 +12642,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12582,23 +12665,19 @@
         <v>19</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>188</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>562</v>
+        <v>511</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>19</v>
       </c>
@@ -12622,13 +12701,11 @@
         <v>19</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>567</v>
+        <v>513</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>19</v>
@@ -12646,7 +12723,7 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12667,18 +12744,18 @@
         <v>19</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>568</v>
+        <v>19</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>569</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12689,7 +12766,7 @@
         <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>19</v>
@@ -12701,13 +12778,13 @@
         <v>19</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>571</v>
+        <v>165</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>572</v>
+        <v>166</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12734,13 +12811,13 @@
         <v>19</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>573</v>
+        <v>19</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>574</v>
+        <v>19</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>19</v>
@@ -12758,19 +12835,19 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>570</v>
+        <v>167</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>19</v>
@@ -12779,22 +12856,22 @@
         <v>19</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>575</v>
+        <v>169</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>576</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>577</v>
+        <v>534</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12813,16 +12890,16 @@
         <v>19</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>578</v>
+        <v>172</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>579</v>
+        <v>173</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>580</v>
+        <v>149</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12848,31 +12925,31 @@
         <v>19</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>581</v>
+        <v>19</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>582</v>
+        <v>19</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>577</v>
+        <v>175</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12884,7 +12961,7 @@
         <v>19</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>19</v>
@@ -12893,18 +12970,18 @@
         <v>19</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>583</v>
+        <v>169</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>584</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>585</v>
+        <v>537</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12915,7 +12992,7 @@
         <v>77</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>19</v>
@@ -12924,21 +13001,23 @@
         <v>19</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>405</v>
+        <v>202</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>586</v>
+        <v>203</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>587</v>
+        <v>204</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>19</v>
       </c>
@@ -12986,13 +13065,13 @@
         <v>19</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>585</v>
+        <v>207</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>19</v>
@@ -13007,18 +13086,18 @@
         <v>19</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>589</v>
+        <v>208</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>19</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13041,7 +13120,7 @@
         <v>19</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>165</v>
@@ -13127,14 +13206,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>591</v>
+        <v>541</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13156,12 +13235,14 @@
         <v>134</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>19</v>
@@ -13200,7 +13281,9 @@
       <c r="AB95" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AC95" s="2"/>
+      <c r="AC95" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="AD95" t="s" s="2">
         <v>19</v>
       </c>
@@ -13229,7 +13312,7 @@
         <v>19</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>19</v>
@@ -13237,14 +13320,12 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>592</v>
+        <v>542</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
         <v>19</v>
       </c>
@@ -13262,19 +13343,23 @@
         <v>19</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>594</v>
+        <v>101</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>593</v>
+        <v>216</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>19</v>
       </c>
@@ -13322,19 +13407,19 @@
         <v>19</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>19</v>
@@ -13343,22 +13428,20 @@
         <v>19</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>19</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>596</v>
+        <v>544</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
         <v>19</v>
       </c>
@@ -13376,18 +13459,20 @@
         <v>19</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>598</v>
+        <v>225</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>597</v>
+        <v>226</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>19</v>
@@ -13436,19 +13521,19 @@
         <v>19</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>19</v>
@@ -13457,60 +13542,58 @@
         <v>19</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>19</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>600</v>
+        <v>546</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>600</v>
+        <v>547</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>416</v>
+        <v>19</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>417</v>
+        <v>234</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>19</v>
+        <v>548</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>19</v>
@@ -13552,19 +13635,19 @@
         <v>19</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>419</v>
+        <v>238</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>19</v>
@@ -13573,18 +13656,18 @@
         <v>19</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>19</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>601</v>
+        <v>549</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>601</v>
+        <v>550</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13604,19 +13687,21 @@
         <v>19</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>602</v>
+        <v>244</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>603</v>
+        <v>245</v>
       </c>
       <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>19</v>
       </c>
@@ -13664,7 +13749,7 @@
         <v>19</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>601</v>
+        <v>247</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -13673,7 +13758,7 @@
         <v>87</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>99</v>
@@ -13685,18 +13770,18 @@
         <v>19</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>604</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>605</v>
+        <v>551</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>605</v>
+        <v>552</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13716,19 +13801,23 @@
         <v>19</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>606</v>
+        <v>252</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>607</v>
+        <v>253</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>19</v>
       </c>
@@ -13776,7 +13865,7 @@
         <v>19</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>605</v>
+        <v>257</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -13797,18 +13886,18 @@
         <v>19</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>609</v>
+        <v>258</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>19</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>610</v>
+        <v>553</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>610</v>
+        <v>554</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13828,19 +13917,23 @@
         <v>19</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>611</v>
+        <v>262</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>19</v>
       </c>
@@ -13864,13 +13957,13 @@
         <v>19</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>613</v>
+        <v>19</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>614</v>
+        <v>19</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>19</v>
@@ -13888,7 +13981,7 @@
         <v>19</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>610</v>
+        <v>266</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -13909,29 +14002,29 @@
         <v>19</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>615</v>
+        <v>267</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>616</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>617</v>
+        <v>555</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>617</v>
+        <v>514</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>19</v>
+        <v>515</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>19</v>
@@ -13940,16 +14033,16 @@
         <v>19</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>188</v>
+        <v>516</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>618</v>
+        <v>517</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>619</v>
+        <v>518</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13976,13 +14069,11 @@
         <v>19</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y102" s="2"/>
       <c r="Z102" t="s" s="2">
-        <v>621</v>
+        <v>556</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>19</v>
@@ -14000,13 +14091,13 @@
         <v>19</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>617</v>
+        <v>514</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>19</v>
@@ -14015,24 +14106,24 @@
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>19</v>
+        <v>521</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>19</v>
+        <v>522</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>169</v>
+        <v>523</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>622</v>
+        <v>524</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>623</v>
+        <v>557</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>623</v>
+        <v>557</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14043,7 +14134,7 @@
         <v>77</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>19</v>
@@ -14052,18 +14143,20 @@
         <v>19</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>606</v>
+        <v>429</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>624</v>
+        <v>558</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>19</v>
@@ -14112,13 +14205,13 @@
         <v>19</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>623</v>
+        <v>557</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>19</v>
@@ -14133,18 +14226,18 @@
         <v>19</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>626</v>
+        <v>561</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>627</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>628</v>
+        <v>562</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>628</v>
+        <v>562</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14167,13 +14260,13 @@
         <v>19</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>629</v>
+        <v>165</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>630</v>
+        <v>166</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14200,11 +14293,13 @@
         <v>19</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y104" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z104" t="s" s="2">
-        <v>631</v>
+        <v>19</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>19</v>
@@ -14222,7 +14317,7 @@
         <v>19</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>628</v>
+        <v>167</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14231,10 +14326,10 @@
         <v>87</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>19</v>
@@ -14243,22 +14338,22 @@
         <v>19</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>632</v>
+        <v>169</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>633</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>634</v>
+        <v>563</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>634</v>
+        <v>563</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14277,16 +14372,16 @@
         <v>19</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>405</v>
+        <v>134</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>635</v>
+        <v>172</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>636</v>
+        <v>173</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>637</v>
+        <v>149</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14336,7 +14431,7 @@
         <v>19</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>634</v>
+        <v>175</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14348,7 +14443,7 @@
         <v>19</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>19</v>
@@ -14357,7 +14452,7 @@
         <v>19</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>638</v>
+        <v>169</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>19</v>
@@ -14365,42 +14460,46 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>639</v>
+        <v>564</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>639</v>
+        <v>564</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>19</v>
+        <v>440</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>165</v>
+        <v>441</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>19</v>
       </c>
@@ -14448,19 +14547,19 @@
         <v>19</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>167</v>
+        <v>443</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>19</v>
@@ -14469,7 +14568,7 @@
         <v>19</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>19</v>
@@ -14477,14 +14576,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>640</v>
+        <v>565</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>640</v>
+        <v>565</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>146</v>
+        <v>566</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14500,20 +14599,18 @@
         <v>19</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>134</v>
+        <v>567</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>172</v>
+        <v>568</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>19</v>
@@ -14538,13 +14635,11 @@
         <v>19</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="Y107" s="2"/>
       <c r="Z107" t="s" s="2">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>19</v>
@@ -14562,7 +14657,7 @@
         <v>19</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>175</v>
+        <v>565</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -14574,31 +14669,31 @@
         <v>19</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>19</v>
+        <v>521</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>19</v>
+        <v>522</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>169</v>
+        <v>571</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>19</v>
+        <v>572</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>641</v>
+        <v>573</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>641</v>
+        <v>573</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>416</v>
+        <v>19</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14611,26 +14706,22 @@
         <v>19</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>417</v>
+        <v>574</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>19</v>
       </c>
@@ -14654,13 +14745,13 @@
         <v>19</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>19</v>
+        <v>576</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>19</v>
+        <v>577</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>19</v>
@@ -14678,7 +14769,7 @@
         <v>19</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>419</v>
+        <v>573</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -14690,7 +14781,7 @@
         <v>19</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>19</v>
@@ -14699,18 +14790,18 @@
         <v>19</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>19</v>
+        <v>578</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>642</v>
+        <v>579</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>642</v>
+        <v>579</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14718,10 +14809,10 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>19</v>
@@ -14733,15 +14824,17 @@
         <v>19</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>643</v>
+        <v>580</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>644</v>
+        <v>581</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>19</v>
@@ -14790,13 +14883,13 @@
         <v>19</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>642</v>
+        <v>579</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>19</v>
@@ -14805,24 +14898,24 @@
         <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>646</v>
+        <v>19</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>647</v>
+        <v>19</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>441</v>
+        <v>584</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>648</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>649</v>
+        <v>585</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>649</v>
+        <v>585</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14833,7 +14926,7 @@
         <v>77</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>19</v>
@@ -14845,18 +14938,20 @@
         <v>19</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="O110" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>19</v>
       </c>
@@ -14880,13 +14975,13 @@
         <v>19</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>111</v>
+        <v>359</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>653</v>
+        <v>590</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>654</v>
+        <v>591</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>19</v>
@@ -14904,13 +14999,13 @@
         <v>19</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>649</v>
+        <v>585</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>19</v>
@@ -14925,18 +15020,18 @@
         <v>19</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>655</v>
+        <v>592</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>19</v>
+        <v>593</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14947,7 +15042,7 @@
         <v>77</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>19</v>
@@ -14962,14 +15057,12 @@
         <v>188</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>657</v>
+        <v>595</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>659</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>19</v>
@@ -14994,13 +15087,13 @@
         <v>19</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>660</v>
+        <v>597</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>661</v>
+        <v>598</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>19</v>
@@ -15018,13 +15111,13 @@
         <v>19</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>19</v>
@@ -15039,18 +15132,18 @@
         <v>19</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>19</v>
+        <v>599</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>19</v>
+        <v>600</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>662</v>
+        <v>601</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>662</v>
+        <v>601</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15061,7 +15154,7 @@
         <v>77</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>19</v>
@@ -15073,15 +15166,17 @@
         <v>19</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>291</v>
+        <v>188</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>663</v>
+        <v>602</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>603</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>19</v>
@@ -15106,13 +15201,13 @@
         <v>19</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>19</v>
+        <v>343</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>19</v>
+        <v>605</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>19</v>
+        <v>606</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>19</v>
@@ -15130,13 +15225,13 @@
         <v>19</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>662</v>
+        <v>601</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>19</v>
@@ -15151,9 +15246,2267 @@
         <v>19</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>433</v>
+        <v>607</v>
       </c>
       <c r="AN112" t="s" s="2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC115" s="2"/>
+      <c r="AD115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y124" s="2"/>
+      <c r="Z124" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="O125" s="2"/>
+      <c r="P125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O127" s="2"/>
+      <c r="P127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="P128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="O130" s="2"/>
+      <c r="P130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="O131" s="2"/>
+      <c r="P131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q132" s="2"/>
+      <c r="R132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN132" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:59:53+00:00</t>
+    <t>2024-10-24T14:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T14:28:41+00:00</t>
+    <t>2024-10-24T17:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:45:49+00:00</t>
+    <t>2024-10-24T18:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:34:10+00:00</t>
+    <t>2024-10-24T19:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
